--- a/data/trans_orig/cron_mort_index-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.1116367730234613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3076189180594691</v>
+        <v>0.307618918059469</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.09426625389138338</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06076991768618242</v>
+        <v>0.06094408127908024</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06396522213871147</v>
+        <v>0.06353717955224052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09466102568967416</v>
+        <v>0.09391030524816964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2565338278986792</v>
+        <v>0.2545483323755599</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07486466149578108</v>
+        <v>0.07569337695545035</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1097169722820673</v>
+        <v>0.11007109868433</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09304333087772348</v>
+        <v>0.09621708536582373</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2773047489734374</v>
+        <v>0.2760870341982626</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07558787905579067</v>
+        <v>0.07563227383315026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09281202115241631</v>
+        <v>0.09208842284172915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.097875455958089</v>
+        <v>0.09870661120789501</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2809655511836379</v>
+        <v>0.2823624674903148</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1060593096189776</v>
+        <v>0.1060249655663207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1005978425764862</v>
+        <v>0.09814459279008839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1343087368320505</v>
+        <v>0.130596550642485</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3680095878055562</v>
+        <v>0.3654891082892436</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1136979860201966</v>
+        <v>0.1145390661280155</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1514835432978201</v>
+        <v>0.1493117218098994</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1301068994657019</v>
+        <v>0.1319286792015638</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3602252841407637</v>
+        <v>0.3595096960972821</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1065771532838674</v>
+        <v>0.1047001861372388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1194656328405022</v>
+        <v>0.119641932670694</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1261166316966906</v>
+        <v>0.124928242979504</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3466735526302334</v>
+        <v>0.3468301097613752</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.09843471280444455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2550255661223668</v>
+        <v>0.2550255661223669</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06246758439178085</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04458902915482124</v>
+        <v>0.04353401029511896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06917790593238278</v>
+        <v>0.06842191313500388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08103959758015347</v>
+        <v>0.08046588349336029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.226198217976209</v>
+        <v>0.2231734624417822</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04939322001574453</v>
+        <v>0.04845449086409908</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09558329313584135</v>
+        <v>0.09565491892530309</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08299350516508716</v>
+        <v>0.08283932037746018</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2058781337899873</v>
+        <v>0.2062690541398279</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04930673959508227</v>
+        <v>0.04977310332148472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08656495459035213</v>
+        <v>0.08758417998159219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0861339993125059</v>
+        <v>0.08816642893937261</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2215406752050354</v>
+        <v>0.2207084845881648</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07190747961196474</v>
+        <v>0.07016565601572036</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1107006349755884</v>
+        <v>0.1101973622510112</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1205367448442605</v>
+        <v>0.1205013692281771</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2908218797833303</v>
+        <v>0.288654071442271</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07902759924973192</v>
+        <v>0.07845416195687993</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1377496221640665</v>
+        <v>0.1357616513735442</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1235195756179727</v>
+        <v>0.1251993331869783</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2555582023956802</v>
+        <v>0.255591521298723</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06923493071838617</v>
+        <v>0.06987088118141228</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1150438112723779</v>
+        <v>0.1168873954471337</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1147371895364224</v>
+        <v>0.1172615317146956</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2608505279702446</v>
+        <v>0.2623691916039544</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03253734232678888</v>
+        <v>0.03222698847004782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07980859611432778</v>
+        <v>0.08104335394223453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05829176985742436</v>
+        <v>0.05934439217359534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1865328053226185</v>
+        <v>0.1877682840092629</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04284982471330041</v>
+        <v>0.04415063873604377</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0624424874306494</v>
+        <v>0.06591952600962846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08411553820714993</v>
+        <v>0.08396823070822425</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1668341592138469</v>
+        <v>0.1652592747631108</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04059785490021503</v>
+        <v>0.04096140170977908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07900185916586987</v>
+        <v>0.07824104612700797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07692925002584192</v>
+        <v>0.07428984914233064</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1823850969623578</v>
+        <v>0.1822772086337173</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05487694655390238</v>
+        <v>0.05461397771501499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1213898978810975</v>
+        <v>0.1213913410840063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09610097766539229</v>
+        <v>0.0952029461233226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2412058787795048</v>
+        <v>0.2440272127725113</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07342297815288697</v>
+        <v>0.0733135699490492</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1034493616181726</v>
+        <v>0.1016826894210099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1301619260621735</v>
+        <v>0.1297950881295508</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2116571760122751</v>
+        <v>0.2144483927058546</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05965718932778487</v>
+        <v>0.06049228665681938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1070809470440191</v>
+        <v>0.1063444344314434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1060020105420678</v>
+        <v>0.1054984497745475</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2198138908307326</v>
+        <v>0.2188982043062432</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03098103627591077</v>
+        <v>0.02892213273368012</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05454682825754866</v>
+        <v>0.05214114647807199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06729743728428621</v>
+        <v>0.06736479377173217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1887974202274869</v>
+        <v>0.1879641026351751</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01869341177329058</v>
+        <v>0.01822403886364731</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05585613981301857</v>
+        <v>0.05764960820521989</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0618805727831207</v>
+        <v>0.05901735976713691</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1434982218087041</v>
+        <v>0.1462793055544331</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02929470062163595</v>
+        <v>0.03015233587727552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06258657475004803</v>
+        <v>0.06193591949006098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06958547976278172</v>
+        <v>0.07086523513023948</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1738361106627861</v>
+        <v>0.1747591796854826</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07023547740105104</v>
+        <v>0.06952677508778747</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1027345046093373</v>
+        <v>0.1024520852556096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1183847098389852</v>
+        <v>0.1177014002744534</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2557191947774171</v>
+        <v>0.2606746367648561</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05952855073186593</v>
+        <v>0.06041170039541416</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1072927593187211</v>
+        <v>0.1079993123337794</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1201034843800848</v>
+        <v>0.117771004875223</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1879696901847131</v>
+        <v>0.1919170996990568</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05938896180225696</v>
+        <v>0.05796970825800636</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0989667430124094</v>
+        <v>0.09820689453683396</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1063503961658383</v>
+        <v>0.1089785303976438</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2146973477827455</v>
+        <v>0.2138002944803175</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.09612233611912539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2398643570991603</v>
+        <v>0.2398643570991602</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06710199913539254</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04765336340540163</v>
+        <v>0.04722132723212781</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07661735485274775</v>
+        <v>0.07531168833726516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08570132544501763</v>
+        <v>0.08653161968891049</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2239671959671632</v>
+        <v>0.2229630471628115</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05843512384437482</v>
+        <v>0.05857867930910862</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0946497785444004</v>
+        <v>0.09521868671259982</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09311786948735304</v>
+        <v>0.09395211886182943</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2035504200561508</v>
+        <v>0.2028538411312567</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05534750755511467</v>
+        <v>0.05521483740667835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08878007004659184</v>
+        <v>0.08943070844356509</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09261804913792596</v>
+        <v>0.09330396607294932</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2173074768934636</v>
+        <v>0.2173982732216482</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06313416301915044</v>
+        <v>0.0627249687796026</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09701343989919207</v>
+        <v>0.09645273696608767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1059236931517029</v>
+        <v>0.1068394156633423</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2580295247170125</v>
+        <v>0.2589671481063781</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07614574855283213</v>
+        <v>0.07599402933531212</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1161166148231713</v>
+        <v>0.116840980755268</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1145512313637142</v>
+        <v>0.1160798844868202</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2301696777243477</v>
+        <v>0.2281460372518161</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06684541497282287</v>
+        <v>0.0670109671896042</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1029040889518792</v>
+        <v>0.1043630884073573</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1077851649381952</v>
+        <v>0.1084540480059762</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2398653008241464</v>
+        <v>0.2395121416774095</v>
       </c>
     </row>
     <row r="19">
